--- a/biology/Zoologie/Diaforobiotus_islandicus/Diaforobiotus_islandicus.xlsx
+++ b/biology/Zoologie/Diaforobiotus_islandicus/Diaforobiotus_islandicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diaforobiotus islandicus, unique représentant du genre Diaforobiotus, est une espèce de tardigrades de la famille des Richtersiidae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en Europe, en Amérique du Nord et au Nicaragua.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Degma, Bertolani et Guidetti, 2016[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Degma, Bertolani et Guidetti, 2016 :
 Diaforobiotus islandicus islandicus (Richters, 1904)
 Diaforobiotus islandicus nicaraguensis (Séméria, 1985)</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Richters, 1904 : Isländische Tardigraden. Zoologische Anzeiger, vol. 28, p. 373-377 (texte intégral).
 Séméria, 1985 : Deux nouvelles formes de tardigrades du Nicaragua: Echiniscus maesi n. sp. (Heterotardigrada, Echiniscoidea, Echiniscidae) et Macrobiotus islandicus nicaraguensis n. ssp. (Eutardigrada, Macrobiotidae). Comptes Rendus de l'Académie des Sciences Série III Sciences de la Vie, vol. 300, no 1, p. 9-11.
